--- a/ha-asset/01_design/02_api/設計書_2.0.健康情報API.xlsx
+++ b/ha-asset/01_design/02_api/設計書_2.0.健康情報API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\02_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AD0CEC-4789-4851-8B1B-F41A92F3115A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7C8556-9D0F-42F3-B937-1A6133A2EB86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="780" windowWidth="19320" windowHeight="16035" tabRatio="479" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22305" yWindow="1995" windowWidth="21555" windowHeight="16080" tabRatio="479" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="218">
   <si>
     <t>1.機能一覧</t>
   </si>
@@ -733,11 +733,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>エラーコード：BE0038
-エラーメッセージ：${基礎健康情報計算APIレスポンス.詳細}</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>500系エラー</t>
     <rPh sb="3" eb="4">
       <t>ケイ</t>
@@ -832,10 +827,6 @@
   </si>
   <si>
     <t>基礎健康情報計算API</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ユーザID</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -994,6 +985,18 @@
   </si>
   <si>
     <t>code</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>エラーコード：BE0032
+エラーメッセージ：${基礎健康情報計算APIレスポンス.詳細}</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>リクエスト情報.ユーザID</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -2228,21 +2231,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2262,6 +2250,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2615,7 +2618,9 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20:Z20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -2768,7 +2773,7 @@
       <c r="H5" s="143"/>
       <c r="I5" s="144"/>
       <c r="J5" s="145" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K5" s="143"/>
       <c r="L5" s="143"/>
@@ -5123,9 +5128,7 @@
   </sheetPr>
   <dimension ref="A1:BK133"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -5465,7 +5468,7 @@
     <row r="6" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A6" s="15"/>
       <c r="B6" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -5532,14 +5535,14 @@
     <row r="7" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="203" t="s">
+      <c r="C7" s="198" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="204"/>
-      <c r="E7" s="204"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="205"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="199"/>
+      <c r="F7" s="199"/>
+      <c r="G7" s="199"/>
+      <c r="H7" s="200"/>
       <c r="I7" s="155" t="s">
         <v>15</v>
       </c>
@@ -5601,14 +5604,14 @@
     <row r="8" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="203" t="s">
+      <c r="C8" s="198" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="204"/>
-      <c r="E8" s="204"/>
-      <c r="F8" s="204"/>
-      <c r="G8" s="204"/>
-      <c r="H8" s="205"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="199"/>
+      <c r="G8" s="199"/>
+      <c r="H8" s="200"/>
       <c r="I8" s="155" t="s">
         <v>135</v>
       </c>
@@ -6585,7 +6588,7 @@
       <c r="B22" s="16"/>
       <c r="C22" s="86"/>
       <c r="D22" s="29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E22" s="61"/>
       <c r="F22" s="61"/>
@@ -7353,7 +7356,7 @@
       <c r="BJ32" s="15"/>
       <c r="BK32" s="15"/>
     </row>
-    <row r="33" spans="1:63" ht="16.5" outlineLevel="1">
+    <row r="33" spans="1:63" ht="33" customHeight="1" outlineLevel="1">
       <c r="A33" s="15"/>
       <c r="B33" s="26"/>
       <c r="C33" s="55"/>
@@ -8182,7 +8185,7 @@
       <c r="AC44" s="238"/>
       <c r="AD44" s="239"/>
       <c r="AE44" s="153" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF44" s="153"/>
       <c r="AG44" s="153"/>
@@ -8192,7 +8195,7 @@
       <c r="AK44" s="153"/>
       <c r="AL44" s="154"/>
       <c r="AM44" s="215" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AN44" s="216"/>
       <c r="AO44" s="216"/>
@@ -8254,7 +8257,7 @@
       <c r="AC45" s="219"/>
       <c r="AD45" s="220"/>
       <c r="AE45" s="153" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF45" s="153"/>
       <c r="AG45" s="153"/>
@@ -8264,7 +8267,7 @@
       <c r="AK45" s="153"/>
       <c r="AL45" s="154"/>
       <c r="AM45" s="215" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AN45" s="216"/>
       <c r="AO45" s="216"/>
@@ -8476,7 +8479,7 @@
       <c r="AC48" s="238"/>
       <c r="AD48" s="239"/>
       <c r="AE48" s="153" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF48" s="153"/>
       <c r="AG48" s="153"/>
@@ -8486,7 +8489,7 @@
       <c r="AK48" s="153"/>
       <c r="AL48" s="154"/>
       <c r="AM48" s="215" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AN48" s="216"/>
       <c r="AO48" s="216"/>
@@ -8548,7 +8551,7 @@
       <c r="AC49" s="219"/>
       <c r="AD49" s="220"/>
       <c r="AE49" s="153" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF49" s="153"/>
       <c r="AG49" s="153"/>
@@ -8558,7 +8561,7 @@
       <c r="AK49" s="153"/>
       <c r="AL49" s="154"/>
       <c r="AM49" s="215" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AN49" s="216"/>
       <c r="AO49" s="216"/>
@@ -8704,7 +8707,7 @@
       <c r="AK51" s="224"/>
       <c r="AL51" s="225"/>
       <c r="AM51" s="215" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="AN51" s="216"/>
       <c r="AO51" s="216"/>
@@ -11524,7 +11527,7 @@
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D93" s="15"/>
       <c r="E93" s="15"/>
@@ -11658,16 +11661,16 @@
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="16"/>
-      <c r="D95" s="203" t="s">
+      <c r="D95" s="198" t="s">
         <v>14</v>
       </c>
-      <c r="E95" s="204"/>
-      <c r="F95" s="204"/>
-      <c r="G95" s="204"/>
-      <c r="H95" s="204"/>
-      <c r="I95" s="205"/>
+      <c r="E95" s="199"/>
+      <c r="F95" s="199"/>
+      <c r="G95" s="199"/>
+      <c r="H95" s="199"/>
+      <c r="I95" s="200"/>
       <c r="J95" s="155" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K95" s="156"/>
       <c r="L95" s="156"/>
@@ -11727,53 +11730,53 @@
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="16"/>
-      <c r="D96" s="203" t="s">
+      <c r="D96" s="198" t="s">
         <v>134</v>
       </c>
-      <c r="E96" s="204"/>
-      <c r="F96" s="204"/>
-      <c r="G96" s="204"/>
-      <c r="H96" s="204"/>
-      <c r="I96" s="205"/>
-      <c r="J96" s="206" t="s">
-        <v>181</v>
+      <c r="E96" s="199"/>
+      <c r="F96" s="199"/>
+      <c r="G96" s="199"/>
+      <c r="H96" s="199"/>
+      <c r="I96" s="200"/>
+      <c r="J96" s="201" t="s">
+        <v>180</v>
       </c>
-      <c r="K96" s="207"/>
-      <c r="L96" s="207"/>
-      <c r="M96" s="207"/>
-      <c r="N96" s="207"/>
-      <c r="O96" s="207"/>
-      <c r="P96" s="207"/>
-      <c r="Q96" s="207"/>
-      <c r="R96" s="207"/>
-      <c r="S96" s="207"/>
-      <c r="T96" s="207"/>
-      <c r="U96" s="207"/>
-      <c r="V96" s="207"/>
-      <c r="W96" s="207"/>
-      <c r="X96" s="207"/>
-      <c r="Y96" s="207"/>
-      <c r="Z96" s="207"/>
-      <c r="AA96" s="207"/>
-      <c r="AB96" s="207"/>
-      <c r="AC96" s="207"/>
-      <c r="AD96" s="207"/>
-      <c r="AE96" s="207"/>
-      <c r="AF96" s="207"/>
-      <c r="AG96" s="207"/>
-      <c r="AH96" s="207"/>
-      <c r="AI96" s="207"/>
-      <c r="AJ96" s="207"/>
-      <c r="AK96" s="207"/>
-      <c r="AL96" s="207"/>
-      <c r="AM96" s="207"/>
-      <c r="AN96" s="207"/>
-      <c r="AO96" s="207"/>
-      <c r="AP96" s="207"/>
-      <c r="AQ96" s="207"/>
-      <c r="AR96" s="207"/>
-      <c r="AS96" s="207"/>
-      <c r="AT96" s="208"/>
+      <c r="K96" s="202"/>
+      <c r="L96" s="202"/>
+      <c r="M96" s="202"/>
+      <c r="N96" s="202"/>
+      <c r="O96" s="202"/>
+      <c r="P96" s="202"/>
+      <c r="Q96" s="202"/>
+      <c r="R96" s="202"/>
+      <c r="S96" s="202"/>
+      <c r="T96" s="202"/>
+      <c r="U96" s="202"/>
+      <c r="V96" s="202"/>
+      <c r="W96" s="202"/>
+      <c r="X96" s="202"/>
+      <c r="Y96" s="202"/>
+      <c r="Z96" s="202"/>
+      <c r="AA96" s="202"/>
+      <c r="AB96" s="202"/>
+      <c r="AC96" s="202"/>
+      <c r="AD96" s="202"/>
+      <c r="AE96" s="202"/>
+      <c r="AF96" s="202"/>
+      <c r="AG96" s="202"/>
+      <c r="AH96" s="202"/>
+      <c r="AI96" s="202"/>
+      <c r="AJ96" s="202"/>
+      <c r="AK96" s="202"/>
+      <c r="AL96" s="202"/>
+      <c r="AM96" s="202"/>
+      <c r="AN96" s="202"/>
+      <c r="AO96" s="202"/>
+      <c r="AP96" s="202"/>
+      <c r="AQ96" s="202"/>
+      <c r="AR96" s="202"/>
+      <c r="AS96" s="202"/>
+      <c r="AT96" s="203"/>
       <c r="AU96" s="15"/>
       <c r="AV96" s="15"/>
       <c r="AW96" s="15"/>
@@ -11934,7 +11937,7 @@
       <c r="C99" s="18"/>
       <c r="D99" s="23"/>
       <c r="E99" s="155" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F99" s="156"/>
       <c r="G99" s="156"/>
@@ -12087,7 +12090,7 @@
       <c r="P101" s="171"/>
       <c r="Q101" s="171"/>
       <c r="R101" s="171" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S101" s="171"/>
       <c r="T101" s="171"/>
@@ -12139,7 +12142,7 @@
       <c r="A102" s="15"/>
       <c r="C102" s="18"/>
       <c r="D102" s="180" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E102" s="181"/>
       <c r="F102" s="181"/>
@@ -12159,7 +12162,7 @@
       <c r="P102" s="187"/>
       <c r="Q102" s="188"/>
       <c r="R102" s="189" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="S102" s="190"/>
       <c r="T102" s="190"/>
@@ -12210,7 +12213,7 @@
     <row r="103" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A103" s="15"/>
       <c r="C103" s="133" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D103" s="134"/>
       <c r="E103" s="134"/>
@@ -12297,7 +12300,7 @@
       <c r="P104" s="171"/>
       <c r="Q104" s="171"/>
       <c r="R104" s="171" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S104" s="171"/>
       <c r="T104" s="171"/>
@@ -12349,7 +12352,7 @@
       <c r="A105" s="15"/>
       <c r="C105" s="136"/>
       <c r="D105" s="172" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E105" s="173"/>
       <c r="F105" s="173"/>
@@ -12369,7 +12372,7 @@
       <c r="P105" s="177"/>
       <c r="Q105" s="178"/>
       <c r="R105" s="179" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="S105" s="162"/>
       <c r="T105" s="162"/>
@@ -12421,7 +12424,7 @@
       <c r="A106" s="15"/>
       <c r="C106" s="136"/>
       <c r="D106" s="172" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E106" s="173"/>
       <c r="F106" s="173"/>
@@ -12439,7 +12442,7 @@
       <c r="P106" s="167"/>
       <c r="Q106" s="168"/>
       <c r="R106" s="161" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="S106" s="162"/>
       <c r="T106" s="162"/>
@@ -12490,55 +12493,55 @@
     <row r="107" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A107" s="15"/>
       <c r="C107" s="137"/>
-      <c r="D107" s="195" t="s">
-        <v>200</v>
+      <c r="D107" s="204" t="s">
+        <v>198</v>
       </c>
       <c r="E107" s="153"/>
       <c r="F107" s="153"/>
       <c r="G107" s="153"/>
       <c r="H107" s="153"/>
-      <c r="I107" s="196"/>
-      <c r="J107" s="197" t="s">
+      <c r="I107" s="205"/>
+      <c r="J107" s="206" t="s">
         <v>40</v>
       </c>
-      <c r="K107" s="198"/>
-      <c r="L107" s="198"/>
-      <c r="M107" s="199"/>
+      <c r="K107" s="207"/>
+      <c r="L107" s="207"/>
+      <c r="M107" s="208"/>
       <c r="N107" s="176" t="s">
         <v>25</v>
       </c>
       <c r="O107" s="177"/>
       <c r="P107" s="177"/>
       <c r="Q107" s="178"/>
-      <c r="R107" s="200"/>
-      <c r="S107" s="201"/>
-      <c r="T107" s="201"/>
-      <c r="U107" s="201"/>
-      <c r="V107" s="201"/>
-      <c r="W107" s="201"/>
-      <c r="X107" s="201"/>
-      <c r="Y107" s="201"/>
-      <c r="Z107" s="201"/>
-      <c r="AA107" s="201"/>
-      <c r="AB107" s="201"/>
-      <c r="AC107" s="201"/>
-      <c r="AD107" s="201"/>
-      <c r="AE107" s="201"/>
-      <c r="AF107" s="201"/>
-      <c r="AG107" s="201"/>
-      <c r="AH107" s="201"/>
-      <c r="AI107" s="201"/>
-      <c r="AJ107" s="201"/>
-      <c r="AK107" s="201"/>
-      <c r="AL107" s="201"/>
-      <c r="AM107" s="201"/>
-      <c r="AN107" s="201"/>
-      <c r="AO107" s="201"/>
-      <c r="AP107" s="201"/>
-      <c r="AQ107" s="201"/>
-      <c r="AR107" s="201"/>
-      <c r="AS107" s="201"/>
-      <c r="AT107" s="202"/>
+      <c r="R107" s="195"/>
+      <c r="S107" s="196"/>
+      <c r="T107" s="196"/>
+      <c r="U107" s="196"/>
+      <c r="V107" s="196"/>
+      <c r="W107" s="196"/>
+      <c r="X107" s="196"/>
+      <c r="Y107" s="196"/>
+      <c r="Z107" s="196"/>
+      <c r="AA107" s="196"/>
+      <c r="AB107" s="196"/>
+      <c r="AC107" s="196"/>
+      <c r="AD107" s="196"/>
+      <c r="AE107" s="196"/>
+      <c r="AF107" s="196"/>
+      <c r="AG107" s="196"/>
+      <c r="AH107" s="196"/>
+      <c r="AI107" s="196"/>
+      <c r="AJ107" s="196"/>
+      <c r="AK107" s="196"/>
+      <c r="AL107" s="196"/>
+      <c r="AM107" s="196"/>
+      <c r="AN107" s="196"/>
+      <c r="AO107" s="196"/>
+      <c r="AP107" s="196"/>
+      <c r="AQ107" s="196"/>
+      <c r="AR107" s="196"/>
+      <c r="AS107" s="196"/>
+      <c r="AT107" s="197"/>
       <c r="AU107" s="15"/>
       <c r="AV107" s="15"/>
       <c r="AW107" s="15"/>
@@ -12758,7 +12761,7 @@
       <c r="A111" s="15"/>
       <c r="B111" s="15"/>
       <c r="C111" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D111" s="15"/>
       <c r="E111" s="15"/>
@@ -12825,7 +12828,7 @@
       <c r="A112" s="15"/>
       <c r="B112" s="15"/>
       <c r="C112" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11"/>
@@ -12892,16 +12895,16 @@
       <c r="A113" s="15"/>
       <c r="B113" s="15"/>
       <c r="C113" s="16"/>
-      <c r="D113" s="203" t="s">
+      <c r="D113" s="198" t="s">
         <v>14</v>
       </c>
-      <c r="E113" s="204"/>
-      <c r="F113" s="204"/>
-      <c r="G113" s="204"/>
-      <c r="H113" s="204"/>
-      <c r="I113" s="205"/>
+      <c r="E113" s="199"/>
+      <c r="F113" s="199"/>
+      <c r="G113" s="199"/>
+      <c r="H113" s="199"/>
+      <c r="I113" s="200"/>
       <c r="J113" s="155" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K113" s="156"/>
       <c r="L113" s="156"/>
@@ -12961,16 +12964,16 @@
       <c r="A114" s="15"/>
       <c r="B114" s="15"/>
       <c r="C114" s="16"/>
-      <c r="D114" s="203" t="s">
+      <c r="D114" s="198" t="s">
         <v>134</v>
       </c>
-      <c r="E114" s="204"/>
-      <c r="F114" s="204"/>
-      <c r="G114" s="204"/>
-      <c r="H114" s="204"/>
-      <c r="I114" s="205"/>
+      <c r="E114" s="199"/>
+      <c r="F114" s="199"/>
+      <c r="G114" s="199"/>
+      <c r="H114" s="199"/>
+      <c r="I114" s="200"/>
       <c r="J114" s="155" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K114" s="156"/>
       <c r="L114" s="156"/>
@@ -13168,7 +13171,7 @@
       <c r="C117" s="18"/>
       <c r="D117" s="23"/>
       <c r="E117" s="155" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F117" s="156"/>
       <c r="G117" s="156"/>
@@ -13237,14 +13240,14 @@
       <c r="C118" s="18"/>
       <c r="D118" s="23"/>
       <c r="E118" s="155" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F118" s="156"/>
       <c r="G118" s="156"/>
       <c r="H118" s="156"/>
       <c r="I118" s="157"/>
       <c r="J118" s="158" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K118" s="159"/>
       <c r="L118" s="159"/>
@@ -13392,7 +13395,7 @@
       <c r="P120" s="171"/>
       <c r="Q120" s="171"/>
       <c r="R120" s="171" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S120" s="171"/>
       <c r="T120" s="171"/>
@@ -13445,7 +13448,7 @@
       <c r="B121" s="15"/>
       <c r="C121" s="18"/>
       <c r="D121" s="172" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E121" s="173"/>
       <c r="F121" s="173"/>
@@ -13464,9 +13467,7 @@
       <c r="O121" s="193"/>
       <c r="P121" s="193"/>
       <c r="Q121" s="194"/>
-      <c r="R121" s="161" t="s">
-        <v>145</v>
-      </c>
+      <c r="R121" s="161"/>
       <c r="S121" s="162"/>
       <c r="T121" s="162"/>
       <c r="U121" s="162"/>
@@ -13518,7 +13519,7 @@
       <c r="B122" s="15"/>
       <c r="C122" s="18"/>
       <c r="D122" s="180" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E122" s="181"/>
       <c r="F122" s="181"/>
@@ -13537,9 +13538,7 @@
       <c r="O122" s="187"/>
       <c r="P122" s="187"/>
       <c r="Q122" s="188"/>
-      <c r="R122" s="189" t="s">
-        <v>146</v>
-      </c>
+      <c r="R122" s="189"/>
       <c r="S122" s="190"/>
       <c r="T122" s="190"/>
       <c r="U122" s="190"/>
@@ -13590,7 +13589,7 @@
       <c r="A123" s="15"/>
       <c r="B123" s="15"/>
       <c r="C123" s="133" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D123" s="134"/>
       <c r="E123" s="134"/>
@@ -13678,7 +13677,7 @@
       <c r="P124" s="171"/>
       <c r="Q124" s="171"/>
       <c r="R124" s="171" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S124" s="171"/>
       <c r="T124" s="171"/>
@@ -13731,7 +13730,7 @@
       <c r="B125" s="15"/>
       <c r="C125" s="136"/>
       <c r="D125" s="172" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E125" s="173"/>
       <c r="F125" s="173"/>
@@ -13751,7 +13750,7 @@
       <c r="P125" s="177"/>
       <c r="Q125" s="178"/>
       <c r="R125" s="179" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="S125" s="162"/>
       <c r="T125" s="162"/>
@@ -13804,7 +13803,7 @@
       <c r="B126" s="15"/>
       <c r="C126" s="136"/>
       <c r="D126" s="180" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E126" s="173"/>
       <c r="F126" s="173"/>
@@ -13822,7 +13821,7 @@
       <c r="P126" s="167"/>
       <c r="Q126" s="168"/>
       <c r="R126" s="161" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="S126" s="162"/>
       <c r="T126" s="162"/>
@@ -13875,7 +13874,7 @@
       <c r="B127" s="15"/>
       <c r="C127" s="136"/>
       <c r="D127" s="113" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E127" s="15"/>
       <c r="F127" s="15"/>
@@ -13943,7 +13942,7 @@
       <c r="C128" s="136"/>
       <c r="D128" s="139"/>
       <c r="E128" s="152" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F128" s="153"/>
       <c r="G128" s="153"/>
@@ -13962,7 +13961,7 @@
       <c r="P128" s="165"/>
       <c r="Q128" s="165"/>
       <c r="R128" s="169" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="S128" s="162"/>
       <c r="T128" s="162"/>
@@ -14016,7 +14015,7 @@
       <c r="C129" s="136"/>
       <c r="D129" s="139"/>
       <c r="E129" s="152" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F129" s="153"/>
       <c r="G129" s="153"/>
@@ -14035,7 +14034,7 @@
       <c r="P129" s="167"/>
       <c r="Q129" s="168"/>
       <c r="R129" s="169" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S129" s="162"/>
       <c r="T129" s="162"/>
@@ -14089,7 +14088,7 @@
       <c r="C130" s="136"/>
       <c r="D130" s="139"/>
       <c r="E130" s="152" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F130" s="153"/>
       <c r="G130" s="153"/>
@@ -14108,7 +14107,7 @@
       <c r="P130" s="167"/>
       <c r="Q130" s="168"/>
       <c r="R130" s="169" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="S130" s="162"/>
       <c r="T130" s="162"/>
@@ -14162,7 +14161,7 @@
       <c r="C131" s="137"/>
       <c r="D131" s="140"/>
       <c r="E131" s="152" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F131" s="153"/>
       <c r="G131" s="153"/>
@@ -14181,7 +14180,7 @@
       <c r="P131" s="167"/>
       <c r="Q131" s="168"/>
       <c r="R131" s="169" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="S131" s="162"/>
       <c r="T131" s="162"/>
@@ -15018,7 +15017,7 @@
     <row r="7" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A7" s="5"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="203" t="s">
+      <c r="C7" s="198" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="254"/>
@@ -15087,7 +15086,7 @@
     <row r="8" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A8" s="5"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="203" t="s">
+      <c r="C8" s="198" t="s">
         <v>134</v>
       </c>
       <c r="D8" s="254"/>
@@ -15846,7 +15845,7 @@
       <c r="B19" s="74"/>
       <c r="C19" s="47"/>
       <c r="D19" s="29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
@@ -17005,7 +17004,7 @@
       <c r="AK35" s="100"/>
       <c r="AL35" s="101"/>
       <c r="AM35" s="242" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN35" s="252"/>
       <c r="AO35" s="252"/>
@@ -17077,7 +17076,7 @@
       <c r="AK36" s="100"/>
       <c r="AL36" s="101"/>
       <c r="AM36" s="242" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AN36" s="252"/>
       <c r="AO36" s="252"/>
@@ -17377,7 +17376,7 @@
       <c r="AK40" s="100"/>
       <c r="AL40" s="101"/>
       <c r="AM40" s="242" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AN40" s="252"/>
       <c r="AO40" s="252"/>
@@ -17449,7 +17448,7 @@
       <c r="AK41" s="100"/>
       <c r="AL41" s="101"/>
       <c r="AM41" s="242" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AN41" s="252"/>
       <c r="AO41" s="252"/>
@@ -18824,7 +18823,7 @@
       <c r="B62" s="107"/>
       <c r="C62" s="106"/>
       <c r="D62" s="105" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E62" s="106"/>
       <c r="F62" s="106"/>
@@ -19271,7 +19270,7 @@
         <v>25</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
@@ -19289,7 +19288,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E2" s="35"/>
       <c r="F2" s="35"/>
@@ -19307,7 +19306,7 @@
         <v>33</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E3" s="35"/>
       <c r="F3" s="35"/>
@@ -19323,7 +19322,7 @@
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
@@ -19339,7 +19338,7 @@
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
